--- a/机械结构/标准件统计.xlsx
+++ b/机械结构/标准件统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18288" windowHeight="9060"/>
+    <workbookView windowWidth="22188" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1004,7 +1004,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="2"/>
@@ -1050,7 +1050,7 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>42</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:3">

--- a/机械结构/标准件统计.xlsx
+++ b/机械结构/标准件统计.xlsx
@@ -1004,7 +1004,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="2"/>

--- a/机械结构/标准件统计.xlsx
+++ b/机械结构/标准件统计.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>类别</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>螺母</t>
+  </si>
+  <si>
+    <t>舵盘</t>
   </si>
 </sst>
 </file>
@@ -1001,13 +1004,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="15.4444444444444" customWidth="1"/>
     <col min="2" max="2" width="9.11111111111111" customWidth="1"/>
@@ -1093,6 +1096,17 @@
       </c>
       <c r="C8">
         <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
